--- a/議事録/03_レビュー結果記録(要求分析).xlsx
+++ b/議事録/03_レビュー結果記録(要求分析).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F914BE-CCB7-4024-BEFA-45B4160A4BA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9398637C-2118-4F67-812A-8AFDBE3E81DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -305,19 +305,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>保守性は詳しく書きすぎ</t>
-    <rPh sb="0" eb="3">
-      <t>ホシュセイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>システムテスト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -372,16 +359,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユースケース図と対応させるべきでは</t>
-    <rPh sb="6" eb="7">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユースケースと対応</t>
     <rPh sb="7" eb="9">
       <t>タイオウ</t>
@@ -427,97 +404,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>予約済みを確認機能について
-詳細はどこまで出すのか</t>
-    <rPh sb="0" eb="2">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チケットの閲覧機能について
-チケット一覧の画面ではなくメニュー画面を表示すべき</t>
-    <rPh sb="7" eb="9">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チケットを予約機能について
-チケット情報の表示画面ではなくメニュー画面を表示すべき
-予約ページの表記はいらない</t>
-    <rPh sb="5" eb="7">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ヒョウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>予約をキャンセル機能について
-予約ページの表記はいらない</t>
-    <rPh sb="0" eb="2">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GUIは使用性ではないか</t>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>セイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -667,6 +553,138 @@
     <t>韓</t>
     <rPh sb="0" eb="1">
       <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保守性についての記述が詳細なのでもう少し抽象的に書くべき。</t>
+    <rPh sb="0" eb="3">
+      <t>ホシュセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>チュウショウテキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GUIは使用性ではないか。</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約をキャンセル機能について
+予約ページの表記はいらない。</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約済みを確認機能について
+詳細はどこまで出すのか。</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チケットを予約機能について
+チケット情報の表示画面ではなくメニュー画面を表示すべき。
+予約ページの表記はいらない。</t>
+    <rPh sb="5" eb="7">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チケットの閲覧機能について
+チケット一覧の画面ではなくメニュー画面を表示すべき。</t>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース図との対応が見られない箇所があるため対応させるべき。</t>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1054,6 +1072,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1066,38 +1111,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1548,7 +1566,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A3" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
@@ -1561,10 +1579,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
@@ -1573,78 +1591,78 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+    </row>
+    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="33"/>
+    </row>
+    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="22"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+        <v>50</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1653,86 +1671,86 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="15" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D10" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="15" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D11" s="16">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="30"/>
+      <c r="A12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="22"/>
       <c r="C12" s="15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D12" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="30"/>
+      <c r="A13" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="22"/>
       <c r="C13" s="15" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D13" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
     </row>
@@ -1747,17 +1765,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1768,6 +1775,17 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1787,8 +1805,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1833,13 +1851,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G2" s="10">
         <v>43985</v>
@@ -1854,13 +1872,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G3" s="10">
         <v>43985</v>
@@ -1873,13 +1891,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" s="10">
         <v>43985</v>
@@ -1892,13 +1910,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" s="10">
         <v>43985</v>
@@ -1911,13 +1929,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="10">
         <v>43985</v>
@@ -1932,53 +1950,53 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="G7" s="10">
         <v>43985</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G8" s="10">
         <v>43985</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G9" s="10">
         <v>43985</v>
@@ -2142,10 +2160,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
@@ -2154,10 +2172,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="8" t="s">
         <v>35</v>
       </c>
@@ -2167,66 +2185,66 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
@@ -2235,10 +2253,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="15" t="s">
         <v>27</v>
       </c>
@@ -2247,10 +2265,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
@@ -2259,10 +2277,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="15" t="s">
         <v>27</v>
       </c>
@@ -2271,44 +2289,44 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
     </row>
@@ -2323,18 +2341,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -2344,6 +2350,18 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2628,6 +2646,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2797,22 +2830,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A79778E1-8A0D-4700-9555-1DB37A32EA7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2828,21 +2863,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>